--- a/Data/First_Republic_bank.xlsx
+++ b/Data/First_Republic_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD17031-F0B9-114B-B2D3-278F5CFAF03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D070AB1B-D231-C040-ACF0-B7BAE6F3B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Analysis D" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="298">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -905,6 +905,36 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>12/31/2022</t>
+  </si>
+  <si>
+    <t>06/30/2022</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>06/30/2021</t>
+  </si>
+  <si>
+    <t>12/31/2020</t>
+  </si>
+  <si>
+    <t>06/30/2020</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
+  </si>
+  <si>
+    <t>06/30/2019</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
   </si>
 </sst>
 </file>
@@ -947,13 +977,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922F27D6-487E-448F-99C9-4FA926E2356A}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
@@ -2418,7 +2447,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:T38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4911,52 +4940,52 @@
       <c r="A31" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>4138505</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>5953305</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>286</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>7787756</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>4859392</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>2852400</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
         <v>1653744</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <v>2124511</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="6">
+      <c r="AA31" s="5">
         <v>2855405</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="6">
+      <c r="AD31" s="5">
         <v>3879279</v>
       </c>
       <c r="AE31" s="4"/>
@@ -4965,52 +4994,52 @@
       <c r="A32" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="6" t="s">
+      <c r="T32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="6" t="s">
+      <c r="X32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="6" t="s">
+      <c r="AA32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="6" t="s">
+      <c r="AD32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AE32" s="4"/>
@@ -5181,52 +5210,52 @@
       <c r="A36" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>9137184</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>5319965</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>3982908</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>4054398</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>4340389</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <v>4466365</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="6">
+      <c r="T36" s="5">
         <v>3225403</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="6">
+      <c r="X36" s="5">
         <v>2754727</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="6">
+      <c r="AA36" s="5">
         <v>2474304</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="6">
+      <c r="AD36" s="5">
         <v>7666781</v>
       </c>
       <c r="AE36" s="4"/>
@@ -5235,52 +5264,52 @@
       <c r="A37" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6" t="s">
+      <c r="N37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="6" t="s">
+      <c r="T37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="6" t="s">
+      <c r="X37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="6" t="s">
+      <c r="AA37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="6" t="s">
+      <c r="AD37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AE37" s="4"/>
@@ -5304,37 +5333,37 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>3169</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>20679</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="6">
+      <c r="Q38" s="5">
         <v>313655</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="6">
+      <c r="T38" s="5">
         <v>23304</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="6">
+      <c r="X38" s="5">
         <v>12502</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="6">
+      <c r="AA38" s="5">
         <v>98985</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="6">
+      <c r="AD38" s="5">
         <v>46753</v>
       </c>
       <c r="AE38" s="4"/>
@@ -5348,4504 +5377,3708 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1C6B2-CC7A-1344-BB3C-D05DFA78D8F8}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1">
-        <v>44926</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44926</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44926</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44742</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44742</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44742</v>
-      </c>
-      <c r="H1" s="1">
-        <v>44561</v>
-      </c>
-      <c r="I1" s="1">
-        <v>44561</v>
-      </c>
-      <c r="J1" s="1">
-        <v>44561</v>
-      </c>
-      <c r="K1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="L1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="M1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="N1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="O1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="P1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="R1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="S1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="W1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>43281</v>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U1" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" t="s">
         <v>285</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" t="s">
         <v>285</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>99.21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>94.43</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>78</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>99.58</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>94.3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>78</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>99.93</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>94.72</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>83</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>99.94</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>93.93</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>79</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>99.85</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3">
         <v>93.87</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <v>80</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3">
         <v>99.85</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3">
         <v>93.84</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3">
         <v>82</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3">
         <v>97.47</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <v>93.57</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3">
         <v>80</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3">
         <v>97.37</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3">
         <v>93.53</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3">
         <v>81</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3">
         <v>98.75</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3">
         <v>91.61</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3">
         <v>88</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3">
         <v>98.75</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3">
         <v>91.8</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.77</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>2.52</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>37</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>0.4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>2.56</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>37</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>0.06</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>0.05</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>31</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>0.13</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>2.44</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>26</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>0.1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>24</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4">
         <v>2.81</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4">
         <v>46</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4">
         <v>2.6</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4">
         <v>3.02</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4">
         <v>44</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4">
         <v>1.2</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4">
         <v>6.72</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4">
         <v>16</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4">
         <v>1.2</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4">
         <v>6.64</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.02</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>0.23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>43</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.02</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.24</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>37</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>0.01</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>0.24</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>38</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>0.01</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>0.23</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>41</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>0.01</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>0.3</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>40</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>0.05</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>0.24</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>41</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <v>0.04</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>38</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5">
         <v>0.04</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5">
         <v>0.26</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5">
         <v>33</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5">
         <v>0.05</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5">
         <v>0.48</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5">
         <v>41</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5">
         <v>0.05</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1.23</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>43</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.36</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>43</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1.17</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>41</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>1.4</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>37</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>1.24</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>43</v>
       </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>1.4</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>37</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>1.57</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>34</v>
       </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>1.48</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6">
         <v>37</v>
       </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>0.01</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6">
         <v>79</v>
       </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.01</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0.44</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.41</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>62</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.39</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>54</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0.51</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>48</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>0.49</v>
       </c>
-      <c r="P7" s="4">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="P7">
+        <v>53</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.61</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>51</v>
       </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0.63</v>
       </c>
-      <c r="V7" s="4">
-        <v>53</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
+      <c r="V7">
+        <v>53</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0.66</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7">
         <v>51</v>
       </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>89</v>
       </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="4">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>96</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>96</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>96</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>100</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>100</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>96</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>100</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>96</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>100</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>96</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>100</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8">
         <v>100</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>96</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8">
         <v>100</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8">
         <v>100</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8">
         <v>96</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8">
         <v>100</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8">
         <v>100</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8">
         <v>92</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8">
         <v>100</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8">
         <v>100</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE8">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-    </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>12.28</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>30.84</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>21</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>14.4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>28.7</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>31</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>12.63</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>23.83</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>25</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>12.64</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>24.35</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>31</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>11.62</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>18.399999999999999</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>40</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>10.8</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>15.83</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>44</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>11.65</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10">
         <v>12.81</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>46</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10">
         <v>12.56</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10">
         <v>11.57</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10">
         <v>55</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10">
         <v>12.13</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10">
         <v>8.9600000000000009</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10">
         <v>73</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10">
         <v>11.75</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10">
         <v>9</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE10">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>1.42</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>4.18</v>
       </c>
-      <c r="D11" s="4">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
         <v>1.63</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>4.2</v>
       </c>
-      <c r="G11" s="4">
-        <v>53</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11">
+        <v>53</v>
+      </c>
+      <c r="H11">
         <v>2.11</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>3.41</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>58</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>1.71</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>3.17</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>62</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>2.41</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>1.87</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>70</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>1.9</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>1.81</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>65</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>1.72</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11">
         <v>1.5</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11">
         <v>69</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11">
         <v>1.6</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11">
         <v>1.29</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11">
         <v>66</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11">
         <v>1.83</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11">
         <v>1.92</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11">
         <v>50</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11">
         <v>1.79</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11">
         <v>1.97</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AE11">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>86.29</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>57.06</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>81</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>83.97</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>59.98</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>75</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>85.25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>64.989999999999995</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>85.65</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>64.06</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>68</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>85.96</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>70.47</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>60</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>87.3</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>73.099999999999994</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>58</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <v>86.63</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12">
         <v>76.64</v>
       </c>
-      <c r="V12" s="4">
-        <v>53</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="V12">
+        <v>53</v>
+      </c>
+      <c r="W12">
         <v>85.83</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12">
         <v>78.47</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12">
         <v>44</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12">
         <v>86.05</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12">
         <v>88.37</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12">
         <v>30</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12">
         <v>86.46</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12">
         <v>88.34</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE12">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>90.27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>96</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>90.33</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>96</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>100</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>88.64</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>96</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>100</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>88.28</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>96</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>100</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>87.07</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>96</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>87.29</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13">
         <v>96</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13">
         <v>100</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13">
         <v>86.44</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13">
         <v>96</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13">
         <v>100</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13">
         <v>86.25</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13">
         <v>96</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13">
         <v>100</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13">
         <v>98.55</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13">
         <v>98</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13">
         <v>100</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13">
         <v>98.64</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>6.23</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>33</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>6.19</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>33</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>6.63</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>38</v>
       </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>7.46</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>33</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>7.31</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>40</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>7.51</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14">
         <v>37</v>
       </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>7.66</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14">
         <v>40</v>
       </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>7.77</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14">
         <v>40</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>0.1</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14">
         <v>88</v>
       </c>
-      <c r="AC14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="4">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>0.1</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AE14">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>100</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>96</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>96</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>96</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>100</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>96</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>100</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>100</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>96</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>100</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>100</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15">
         <v>96</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15">
         <v>100</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15">
         <v>100</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>96</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15">
         <v>100</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15">
         <v>100</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15">
         <v>96</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15">
         <v>100</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15">
         <v>100</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AB15">
         <v>98</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AC15">
         <v>100</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD15">
         <v>100</v>
       </c>
-      <c r="AE15" s="4">
+      <c r="AE15">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>15.51</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>1.37</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>90</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>5.45</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>-3.12</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>68</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>-2.08</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>-9.17</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>61</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <v>5.41</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18">
         <v>-8.09</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>79</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18">
         <v>10.39</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>-3.65</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <v>83</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>17.440000000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18">
         <v>2.63</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18">
         <v>82</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18">
         <v>18.95</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18">
         <v>16.48</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18">
         <v>61</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18">
         <v>17.239999999999998</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18">
         <v>18.11</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18">
         <v>59</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18">
         <v>14.57</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA18">
         <v>13.84</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AB18">
         <v>50</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AC18">
         <v>15.55</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AD18">
         <v>13.71</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE18">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>73.45</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>71.77</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>43</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>81.5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>75.05</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>62</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>83.66</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <v>76.010000000000005</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <v>74</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19">
         <v>79.819999999999993</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>73.64</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>51</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19">
         <v>76.7</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>70.69</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <v>50</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>71.23</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19">
         <v>67.09</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19">
         <v>51</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19">
         <v>70.03</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19">
         <v>61.54</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19">
         <v>61</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19">
         <v>70.739999999999995</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19">
         <v>60.49</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19">
         <v>66</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19">
         <v>73.17</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19">
         <v>70.36</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AB19">
         <v>58</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AC19">
         <v>71.209999999999994</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD19">
         <v>70.52</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE19">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>13.72</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>7.83</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>84</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>5.7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>5.21</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>62</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>2.81</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>4.34</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <v>54</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20">
         <v>6.79</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20">
         <v>5.09</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>65</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <v>7.32</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>7.3</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>63</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>10.130000000000001</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20">
         <v>10.039999999999999</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20">
         <v>51</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20">
         <v>11.26</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20">
         <v>12.06</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20">
         <v>50</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20">
         <v>11.33</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20">
         <v>12.34</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20">
         <v>55</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20">
         <v>9.17</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20">
         <v>11.83</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AB20">
         <v>37</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AC20">
         <v>9.6300000000000008</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AD20">
         <v>11.34</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AE20">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>14.19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>213.55</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>52.73</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>427.79</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>21</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>252.48</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>677.21</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <v>32</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21">
         <v>70.92</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21">
         <v>686.03</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21">
         <v>46.59</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>402.59</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>21.94</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21">
         <v>227.08</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21">
         <v>12.64</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21">
         <v>95.85</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21">
         <v>7</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21">
         <v>17.73</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21">
         <v>85.13</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21">
         <v>22</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21">
         <v>31.37</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21">
         <v>50.94</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB21">
         <v>59</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC21">
         <v>42.92</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD21">
         <v>56.48</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE21">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>64.56</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>413.76</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>177.29</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>803.55</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>19</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>429.87</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>985.43</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <v>26</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22">
         <v>177.42</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="2">
         <v>1129.81</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>140.94</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>695.46</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <v>6</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>74.55</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22">
         <v>354.32</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22">
         <v>7</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22">
         <v>63.5</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22">
         <v>201.02</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22">
         <v>3</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22">
         <v>70.63</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22">
         <v>181.24</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22">
         <v>11</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22">
         <v>92.78</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22">
         <v>158.54</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22">
         <v>41</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22">
         <v>99.77</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22">
         <v>169.25</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>5.62</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>-17.13</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>96</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>-5.27</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>-19.61</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23">
         <v>84</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>-13.12</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23">
         <v>-23.85</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
         <v>74</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23">
         <v>-6.13</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23">
         <v>-24.16</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23">
         <v>93</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23">
         <v>-3.69</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23">
         <v>-22.14</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23">
         <v>93</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23">
         <v>3.47</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23">
         <v>-17.579999999999998</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23">
         <v>93</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23">
         <v>5.54</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23">
         <v>-9.6300000000000008</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23">
         <v>88</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23">
         <v>4.59</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23">
         <v>-8.2899999999999991</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23">
         <v>85</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23">
         <v>0.89</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23">
         <v>-2.34</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB23">
         <v>56</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AC23">
         <v>0.03</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD23">
         <v>-2.91</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE23">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>94.13</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>61.72</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>96</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>91.03</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>59.38</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>96</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>85.89</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>55.47</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <v>93</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24">
         <v>90.96</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24">
         <v>54.13</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>96</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24">
         <v>97.41</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>57.02</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <v>96</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>101.23</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24">
         <v>60.41</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24">
         <v>96</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24">
         <v>100.21</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24">
         <v>69.61</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24">
         <v>96</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24">
         <v>98.02</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24">
         <v>71.959999999999994</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24">
         <v>92</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24">
         <v>95.53</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24">
         <v>88.24</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AB24">
         <v>72</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AC24">
         <v>94.54</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AD24">
         <v>88.57</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AE24">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>106.34</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>71.38</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>93</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>93.49</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>66.84</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <v>93</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>88.63</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <v>62.28</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>87</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25">
         <v>94.93</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25">
         <v>62.23</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>89</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <v>102.43</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>67.709999999999994</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <v>93</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>109.14</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25">
         <v>73.94</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25">
         <v>93</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25">
         <v>110.93</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25">
         <v>86.39</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25">
         <v>88</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25">
         <v>109.37</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25">
         <v>89.74</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25">
         <v>88</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25">
         <v>104.04</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25">
         <v>100.64</v>
       </c>
-      <c r="AB25" s="4">
-        <v>53</v>
-      </c>
-      <c r="AC25" s="4">
+      <c r="AB25">
+        <v>53</v>
+      </c>
+      <c r="AC25">
         <v>102.95</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25">
         <v>99.79</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE25">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>75.37</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>96</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <v>100</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>70.03</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>96</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>100</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <v>70.88</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>96</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26">
         <v>100</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26">
         <v>85.66</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26">
         <v>96</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26">
         <v>100</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26">
         <v>85.49</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>96</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>100</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26">
         <v>85.16</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26">
         <v>96</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26">
         <v>100</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26">
         <v>75.62</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26">
         <v>96</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26">
         <v>89.23</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26">
         <v>79.69</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26">
         <v>42</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26">
         <v>73.569999999999993</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26">
         <v>84.93</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26">
         <v>17</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC26">
         <v>100</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26">
         <v>83.58</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AE26">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <v>37</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <v>0.36</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>2.89</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>18</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>0.54</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <v>2.57</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <v>16</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27">
         <v>1.02</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <v>4.04</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <v>37</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27">
         <v>0.96</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27">
         <v>6.43</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <v>16</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>1.06</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27">
         <v>8.1199999999999992</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27">
         <v>13</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27">
         <v>3.2</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27">
         <v>7.94</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27">
         <v>42</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27">
         <v>3.22</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27">
         <v>7.68</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Y27">
         <v>44</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="Z27">
         <v>2.1</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AA27">
         <v>5.68</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AB27">
         <v>31</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AC27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AD27">
         <v>5.45</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AE27">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>0.38</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>68</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0.3</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>68</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0.26</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <v>70</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28">
         <v>72</v>
       </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>0.31</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <v>73</v>
       </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>0.37</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28">
         <v>72</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28">
         <v>0.01</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28">
         <v>0.42</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28">
         <v>69</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28">
         <v>0.01</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28">
         <v>0.41</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y28">
         <v>70</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28">
         <v>0.01</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AA28">
         <v>0.12</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AB28">
         <v>65</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AC28">
         <v>0.02</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AD28">
         <v>0.16</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AE28">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>5.41</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <v>34</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29">
         <v>0.36</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>3.19</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>18</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <v>2.83</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>16</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29">
         <v>1.02</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29">
         <v>4.33</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29">
         <v>31</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29">
         <v>0.96</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29">
         <v>6.91</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <v>16</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>1.07</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29">
         <v>8.67</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29">
         <v>13</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29">
         <v>3.22</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29">
         <v>8.4700000000000006</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29">
         <v>38</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29">
         <v>3.23</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29">
         <v>8.11</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y29">
         <v>40</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z29">
         <v>2.12</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AA29">
         <v>5.9</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB29">
         <v>30</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC29">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD29">
         <v>5.76</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE29">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>8.24</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>25</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>9.3800000000000008</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>16</v>
       </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>8.81</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>16</v>
       </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>12.37</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30">
         <v>17</v>
       </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>12.87</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <v>17</v>
       </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>12.71</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30">
         <v>17</v>
       </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>9.1</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30">
         <v>15</v>
       </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>8.15</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30">
         <v>14</v>
       </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="4">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
         <v>3.11</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AB30">
         <v>56</v>
       </c>
-      <c r="AC30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="4">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>2.61</v>
       </c>
-      <c r="AE30" s="4">
+      <c r="AE30">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>93</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>96</v>
       </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>92</v>
       </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>92</v>
       </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>92</v>
       </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <v>89</v>
       </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>88</v>
       </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>92</v>
       </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="4">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <v>3.07</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AB31">
         <v>78</v>
       </c>
-      <c r="AC31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="4">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <v>5.31</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AE31">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE34" s="4"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="3">
+        <v>175036203</v>
+      </c>
+      <c r="E34" s="3">
+        <v>164955223</v>
+      </c>
+      <c r="H34" s="3">
+        <v>156218775</v>
+      </c>
+      <c r="K34" s="3">
+        <v>134577540</v>
+      </c>
+      <c r="N34" s="3">
+        <v>114761893</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>98385458</v>
+      </c>
+      <c r="T34" s="3">
+        <v>87855954</v>
+      </c>
+      <c r="W34" s="3">
+        <v>81234907</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>78073369</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>71862623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>1367305</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>658379</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <v>90720</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>67092</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="6">
+      <c r="N35" s="3">
         <v>152331</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="6">
+      <c r="Q35" s="3">
         <v>99097</v>
       </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="6">
+      <c r="T35" s="3">
         <v>2243678</v>
       </c>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="6">
+      <c r="W35" s="3">
         <v>2165619</v>
       </c>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="6">
+      <c r="Z35" s="3">
         <v>946690</v>
       </c>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="6">
+      <c r="AC35" s="3">
         <v>875936</v>
       </c>
-      <c r="AE35" s="4"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>33198</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <v>33256</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <v>11748</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>12203</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="6">
+      <c r="N36" s="3">
         <v>14576</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="6">
+      <c r="Q36" s="3">
         <v>49406</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="6">
+      <c r="T36" s="3">
         <v>33614</v>
       </c>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="6">
+      <c r="W36" s="3">
         <v>30557</v>
       </c>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="6">
+      <c r="Z36" s="3">
         <v>43177</v>
       </c>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="6">
+      <c r="AC36" s="3">
         <v>33391</v>
       </c>
-      <c r="AE36" s="4"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="4"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>248</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4">
-        <v>0</v>
-      </c>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="4"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE39" s="4"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="B39" s="3">
+        <v>176436706</v>
+      </c>
+      <c r="E39" s="3">
+        <v>165647106</v>
+      </c>
+      <c r="H39" s="3">
+        <v>156321243</v>
+      </c>
+      <c r="K39" s="3">
+        <v>134656835</v>
+      </c>
+      <c r="N39" s="3">
+        <v>114928800</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>98533961</v>
+      </c>
+      <c r="T39" s="3">
+        <v>90133246</v>
+      </c>
+      <c r="W39" s="3">
+        <v>83431083</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>79063236</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>72771950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="6">
+      <c r="B41" s="3">
+        <v>21668265</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23857192</v>
+      </c>
+      <c r="H41" s="3">
+        <v>19747444</v>
+      </c>
+      <c r="K41" s="3">
+        <v>17025241</v>
+      </c>
+      <c r="N41" s="3">
+        <v>13357377</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>10640632</v>
+      </c>
+      <c r="T41" s="3">
+        <v>10500725</v>
+      </c>
+      <c r="W41" s="3">
+        <v>10479345</v>
+      </c>
+      <c r="Z41" s="3">
         <v>9589120</v>
       </c>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="6">
+      <c r="AC41" s="3">
         <v>8553632</v>
       </c>
-      <c r="AE41" s="4"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>2513442</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>2694890</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>3303885</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>2296124</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="6">
+      <c r="N42" s="3">
         <v>2774821</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="6">
+      <c r="Q42" s="3">
         <v>1869784</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="6">
+      <c r="T42" s="3">
         <v>1551167</v>
       </c>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="6">
+      <c r="W42" s="3">
         <v>1338881</v>
       </c>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="6">
+      <c r="Z42" s="3">
         <v>1443825</v>
       </c>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="6">
+      <c r="AC42" s="3">
         <v>1300775</v>
       </c>
-      <c r="AE42" s="4"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE43" s="4"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="3">
+        <v>152254999</v>
+      </c>
+      <c r="E43" s="3">
+        <v>139095024</v>
+      </c>
+      <c r="H43" s="3">
+        <v>133269914</v>
+      </c>
+      <c r="K43" s="3">
+        <v>115335470</v>
+      </c>
+      <c r="N43" s="3">
+        <v>98796602</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>86023545</v>
+      </c>
+      <c r="T43" s="3">
+        <v>78081354</v>
+      </c>
+      <c r="W43" s="3">
+        <v>71612857</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>68030291</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>62917543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE44" s="4"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="3">
+        <v>176436706</v>
+      </c>
+      <c r="E44" s="3">
+        <v>165647106</v>
+      </c>
+      <c r="H44" s="3">
+        <v>156321243</v>
+      </c>
+      <c r="K44" s="3">
+        <v>134656835</v>
+      </c>
+      <c r="N44" s="3">
+        <v>114928800</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>98533961</v>
+      </c>
+      <c r="T44" s="3">
+        <v>90133246</v>
+      </c>
+      <c r="W44" s="3">
+        <v>83431083</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>79063236</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>72771950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE45" s="4"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>53</v>
+      </c>
+      <c r="W45" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE46" s="4"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="B46" s="3">
+        <v>176436706</v>
+      </c>
+      <c r="E46" s="3">
+        <v>165647106</v>
+      </c>
+      <c r="H46" s="3">
+        <v>156321243</v>
+      </c>
+      <c r="K46" s="3">
+        <v>134656835</v>
+      </c>
+      <c r="N46" s="3">
+        <v>114928800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>98533961</v>
+      </c>
+      <c r="T46" s="3">
+        <v>90133246</v>
+      </c>
+      <c r="W46" s="3">
+        <v>83431083</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>79063236</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>72771950</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="6">
+      <c r="B49" s="3">
+        <v>34759268</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15859893</v>
+      </c>
+      <c r="H49" s="3">
         <v>9527612</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE49" s="4"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="K49" s="3">
+        <v>15635227</v>
+      </c>
+      <c r="N49" s="3">
+        <v>18386895</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>23544804</v>
+      </c>
+      <c r="T49" s="3">
+        <v>22206006</v>
+      </c>
+      <c r="W49" s="3">
+        <v>18957833</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>16169509</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>17089829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="6">
+      <c r="B50" s="3">
+        <v>29164955</v>
+      </c>
+      <c r="E50" s="3">
+        <v>11289802</v>
+      </c>
+      <c r="H50" s="3">
         <v>5086352</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="6">
+      <c r="K50" s="3">
+        <v>10981590</v>
+      </c>
+      <c r="N50" s="3">
+        <v>10429857</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>12998342</v>
+      </c>
+      <c r="T50" s="3">
+        <v>13087638</v>
+      </c>
+      <c r="W50" s="3">
+        <v>11979922</v>
+      </c>
+      <c r="Z50" s="3">
         <v>9101777</v>
       </c>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="6">
+      <c r="AC50" s="3">
         <v>9037349</v>
       </c>
-      <c r="AE50" s="4"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE51" s="4"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="3">
+        <v>156177298</v>
+      </c>
+      <c r="E51" s="3">
+        <v>161286475</v>
+      </c>
+      <c r="H51" s="3">
+        <v>151491885</v>
+      </c>
+      <c r="K51" s="3">
+        <v>129018801</v>
+      </c>
+      <c r="N51" s="3">
+        <v>109293050</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>91394266</v>
+      </c>
+      <c r="T51" s="3">
+        <v>81424959</v>
+      </c>
+      <c r="W51" s="3">
+        <v>74770519</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>72590159</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>66827693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>9851506</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>2793646</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="6">
+      <c r="H52" s="3">
         <v>2967621</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="6">
+      <c r="K52" s="3">
         <v>3192294</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="6">
+      <c r="N52" s="3">
         <v>3510960</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="6">
+      <c r="Q52" s="3">
         <v>5536852</v>
       </c>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="6">
+      <c r="T52" s="3">
         <v>7434157</v>
       </c>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="6">
+      <c r="W52" s="3">
         <v>6918940</v>
       </c>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="6">
+      <c r="Z52" s="3">
         <v>4416454</v>
       </c>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="6">
+      <c r="AC52" s="3">
         <v>3006265</v>
       </c>
-      <c r="AE52" s="4"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <v>396392</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="6">
+      <c r="E53" s="3">
         <v>429888</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="6">
+      <c r="H53" s="3">
         <v>410564</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="6">
+      <c r="K53" s="3">
         <v>468167</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="6">
+      <c r="N53" s="3">
         <v>634352</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="6">
+      <c r="Q53" s="3">
         <v>609318</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="6">
+      <c r="T53" s="3">
         <v>681376</v>
       </c>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="6">
+      <c r="W53" s="3">
         <v>1038049</v>
       </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="6">
+      <c r="Z53" s="3">
         <v>2150011</v>
       </c>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="6">
+      <c r="AC53" s="3">
         <v>1931532</v>
       </c>
-      <c r="AE53" s="4"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="6">
+      <c r="B54" s="3">
+        <v>14644379</v>
+      </c>
+      <c r="E54" s="3">
         <v>3493074</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="6">
+      <c r="H54" s="3">
         <v>3735669</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="6">
+      <c r="K54" s="3">
         <v>3980205</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="6">
+      <c r="N54" s="3">
         <v>4174856</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="6">
+      <c r="Q54" s="3">
         <v>5740956</v>
       </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="6">
+      <c r="T54" s="3">
         <v>5448878</v>
       </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="6">
+      <c r="W54" s="3">
         <v>5613890</v>
       </c>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="6">
+      <c r="Z54" s="3">
         <v>3829497</v>
       </c>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="6">
+      <c r="AC54" s="3">
         <v>4204665</v>
       </c>
-      <c r="AE54" s="4"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="3">
         <v>319453</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="6">
+      <c r="E55" s="3">
         <v>270829</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="6">
+      <c r="H55" s="3">
         <v>242590</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="6">
+      <c r="K55" s="3">
         <v>280552</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="6">
+      <c r="N55" s="3">
         <v>360893</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="6">
+      <c r="Q55" s="3">
         <v>351353</v>
       </c>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="6">
+      <c r="T55" s="3">
         <v>370649</v>
       </c>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="6">
+      <c r="W55" s="3">
         <v>391469</v>
       </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="6">
+      <c r="Z55" s="3">
         <v>981553</v>
       </c>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="6">
+      <c r="AC55" s="3">
         <v>1056094</v>
       </c>
-      <c r="AE55" s="4"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <v>9225000</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="6">
+      <c r="E56" s="3">
         <v>7200000</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="6">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
         <v>5125000</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="6">
+      <c r="N56" s="3">
         <v>5155000</v>
       </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="6">
+      <c r="Q56" s="3">
         <v>6210000</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="6">
+      <c r="T56" s="3">
         <v>4300000</v>
       </c>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="6">
+      <c r="W56" s="3">
         <v>4000000</v>
       </c>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="6">
+      <c r="Z56" s="3">
         <v>3650000</v>
       </c>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="6">
+      <c r="AC56" s="3">
         <v>3750000</v>
       </c>
-      <c r="AE56" s="4"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="3">
         <v>4775000</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="6">
+      <c r="E57" s="3">
         <v>3800000</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="6">
+      <c r="H57" s="3">
         <v>3700000</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="6">
+      <c r="K57" s="3">
         <v>3875000</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="6">
+      <c r="N57" s="3">
         <v>6600000</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="6">
+      <c r="Q57" s="3">
         <v>9200000</v>
       </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="6">
+      <c r="T57" s="3">
         <v>8250000</v>
       </c>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="6">
+      <c r="W57" s="3">
         <v>5800000</v>
       </c>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="6">
+      <c r="Z57" s="3">
         <v>5150000</v>
       </c>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="6">
+      <c r="AC57" s="3">
         <v>6500000</v>
       </c>
-      <c r="AE57" s="4"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>211</v>
       </c>
-      <c r="B58" s="4">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="6">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>499584</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="6">
+      <c r="K58" s="3">
         <v>499108</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4">
-        <v>0</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4">
-        <v>0</v>
-      </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4">
-        <v>0</v>
-      </c>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="6">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>399607</v>
       </c>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="6">
+      <c r="AC58" s="3">
         <v>399186</v>
       </c>
-      <c r="AE58" s="4"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="3">
         <v>575635</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="6">
+      <c r="E59" s="3">
         <v>626664</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="6">
+      <c r="H59" s="3">
         <v>529648</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="6">
+      <c r="K59" s="3">
         <v>539971</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="6">
+      <c r="N59" s="3">
         <v>1069218</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="6">
+      <c r="Q59" s="3">
         <v>1015037</v>
       </c>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="6">
+      <c r="T59" s="3">
         <v>524759</v>
       </c>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="6">
+      <c r="W59" s="3">
         <v>509619</v>
       </c>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="6">
+      <c r="Z59" s="3">
         <v>524291</v>
       </c>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="6">
+      <c r="AC59" s="3">
         <v>509476</v>
       </c>
-      <c r="AE59" s="4"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4">
-        <v>0</v>
-      </c>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4">
-        <v>0</v>
-      </c>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="4"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>214</v>
       </c>
-      <c r="B61" s="4">
-        <v>0</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4">
-        <v>0</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4">
-        <v>0</v>
-      </c>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="6">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>450000</v>
       </c>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="4"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>215</v>
       </c>
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4">
-        <v>0</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4">
-        <v>0</v>
-      </c>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4">
-        <v>0</v>
-      </c>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="4"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>216</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="3">
         <v>1575</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="6">
+      <c r="E63" s="3">
         <v>1575</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="6">
+      <c r="H63" s="3">
         <v>1575</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="6">
+      <c r="K63" s="3">
         <v>1575</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="6">
+      <c r="N63" s="3">
         <v>1575</v>
       </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="6">
+      <c r="Q63" s="3">
         <v>4040</v>
       </c>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="6">
+      <c r="T63" s="3">
         <v>9878</v>
       </c>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="6">
+      <c r="W63" s="3">
         <v>5898</v>
       </c>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="6">
+      <c r="Z63" s="3">
         <v>10493</v>
       </c>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="6">
+      <c r="AC63" s="3">
         <v>12538</v>
       </c>
-      <c r="AE63" s="4"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="3">
         <v>5295576</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6">
+      <c r="E64" s="3">
         <v>596728</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="6">
+      <c r="H64" s="3">
         <v>851099</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="6">
+      <c r="K64" s="3">
         <v>1377277</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="6">
+      <c r="N64" s="3">
         <v>1100001</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="6">
+      <c r="Q64" s="3">
         <v>1047386</v>
       </c>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="6">
+      <c r="T64" s="3">
         <v>2888760</v>
       </c>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="6">
+      <c r="W64" s="3">
         <v>2685205</v>
       </c>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="6">
+      <c r="Z64" s="3">
         <v>1662027</v>
       </c>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="6">
+      <c r="AC64" s="3">
         <v>833498</v>
       </c>
-      <c r="AE64" s="4"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>218</v>
       </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4">
-        <v>0</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4">
-        <v>0</v>
-      </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4">
-        <v>0</v>
-      </c>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="4"/>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/First_Republic_bank.xlsx
+++ b/Data/First_Republic_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D070AB1B-D231-C040-ACF0-B7BAE6F3B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D826C39-B947-8E4A-8388-13E4FE01626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Analysis D" sheetId="15" r:id="rId1"/>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D278C-2E25-A34E-A3F5-A08944AFA89B}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4974,18 +4974,17 @@
         <v>1653744</v>
       </c>
       <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="5">
+      <c r="W31" s="5">
         <v>2124511</v>
       </c>
+      <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="5">
+      <c r="Z31" s="5">
         <v>2855405</v>
       </c>
+      <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="5">
+      <c r="AC31" s="5">
         <v>3879279</v>
       </c>
       <c r="AE31" s="4"/>
@@ -5028,18 +5027,17 @@
         <v>286</v>
       </c>
       <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="5" t="s">
+      <c r="Z32" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="5" t="s">
+      <c r="AC32" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AE32" s="4"/>
@@ -5082,18 +5080,17 @@
         <v>0</v>
       </c>
       <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4">
-        <v>0</v>
-      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4">
-        <v>0</v>
-      </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4">
+      <c r="AC33" s="4">
         <v>0</v>
       </c>
       <c r="AE33" s="4"/>
@@ -5136,18 +5133,17 @@
         <v>0</v>
       </c>
       <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4">
-        <v>0</v>
-      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4">
-        <v>0</v>
-      </c>
+      <c r="Z34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4">
+      <c r="AC34" s="4">
         <v>0</v>
       </c>
       <c r="AE34" s="4"/>
@@ -5190,18 +5186,17 @@
         <v>0</v>
       </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4">
-        <v>0</v>
-      </c>
+      <c r="W35" s="4">
+        <v>0</v>
+      </c>
+      <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4">
-        <v>0</v>
-      </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4">
+      <c r="AC35" s="4">
         <v>0</v>
       </c>
       <c r="AE35" s="4"/>
@@ -5244,18 +5239,17 @@
         <v>3225403</v>
       </c>
       <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="5">
+      <c r="W36" s="5">
         <v>2754727</v>
       </c>
+      <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="5">
+      <c r="Z36" s="5">
         <v>2474304</v>
       </c>
+      <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="5">
+      <c r="AC36" s="5">
         <v>7666781</v>
       </c>
       <c r="AE36" s="4"/>
@@ -5298,18 +5292,17 @@
         <v>286</v>
       </c>
       <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="5" t="s">
+      <c r="W37" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="5" t="s">
+      <c r="Z37" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="5" t="s">
+      <c r="AC37" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AE37" s="4"/>
@@ -5352,18 +5345,17 @@
         <v>23304</v>
       </c>
       <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="5">
+      <c r="W38" s="5">
         <v>12502</v>
       </c>
+      <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="5">
+      <c r="Z38" s="5">
         <v>98985</v>
       </c>
+      <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="5">
+      <c r="AC38" s="5">
         <v>46753</v>
       </c>
       <c r="AE38" s="4"/>
@@ -5377,7 +5369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1C6B2-CC7A-1344-BB3C-D05DFA78D8F8}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>

--- a/Data/First_Republic_bank.xlsx
+++ b/Data/First_Republic_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D826C39-B947-8E4A-8388-13E4FE01626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B437AE-2679-D74A-B055-B87DBBAFF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Analysis D" sheetId="15" r:id="rId1"/>
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D278C-2E25-A34E-A3F5-A08944AFA89B}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
@@ -5369,17 +5369,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1C6B2-CC7A-1344-BB3C-D05DFA78D8F8}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">

--- a/Data/First_Republic_bank.xlsx
+++ b/Data/First_Republic_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E714B4FA-6A8F-4360-8733-DC17191486E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A40D9D-7B77-4CDC-B124-EB51C2CBF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6FBE5F48-C8CC-4C6E-A2B8-5441B031F19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Analysis D" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="297">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02D278C-2E25-A34E-A3F5-A08944AFA89B}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AE38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,284 +4921,61 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="3">
-        <v>4138505</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5953305</v>
-      </c>
-      <c r="H31" s="3">
-        <v>12841896</v>
-      </c>
-      <c r="K31" s="3">
-        <v>7787756</v>
-      </c>
-      <c r="N31" s="3">
-        <v>4859392</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>2852400</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1653744</v>
-      </c>
-      <c r="W31" s="3">
-        <v>2124511</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>2855405</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>3879279</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="3">
-        <v>21771773</v>
-      </c>
-      <c r="E32" s="3">
-        <v>23911271</v>
-      </c>
-      <c r="H32" s="3">
-        <v>30962837</v>
-      </c>
-      <c r="K32" s="3">
-        <v>22703136</v>
-      </c>
-      <c r="N32" s="3">
-        <v>18097835</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>13037520</v>
-      </c>
-      <c r="T32" s="3">
-        <v>11196215</v>
-      </c>
-      <c r="W32" s="3">
-        <v>11676852</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>11408285</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>11333987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="3">
-        <v>9137184</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5319965</v>
-      </c>
-      <c r="H36" s="3">
-        <v>3982908</v>
-      </c>
-      <c r="K36" s="3">
-        <v>4054398</v>
-      </c>
-      <c r="N36" s="3">
-        <v>4340389</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>4466365</v>
-      </c>
-      <c r="T36" s="3">
-        <v>3225403</v>
-      </c>
-      <c r="W36" s="3">
-        <v>2754727</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>2474304</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>7666781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="3">
-        <v>101018005</v>
-      </c>
-      <c r="E37" s="3">
-        <v>88110623</v>
-      </c>
-      <c r="H37" s="3">
-        <v>73853189</v>
-      </c>
-      <c r="K37" s="3">
-        <v>67409562</v>
-      </c>
-      <c r="N37" s="3">
-        <v>59349548</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>48209303</v>
-      </c>
-      <c r="T37" s="3">
-        <v>40437617</v>
-      </c>
-      <c r="W37" s="3">
-        <v>39243065</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>36996291</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>34301198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>936</v>
-      </c>
-      <c r="K38" s="3">
-        <v>3169</v>
-      </c>
-      <c r="N38" s="3">
-        <v>20679</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>313655</v>
-      </c>
-      <c r="T38" s="3">
-        <v>23304</v>
-      </c>
-      <c r="W38" s="3">
-        <v>12502</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>98985</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>46753</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AC36" s="3"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AC37" s="3"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="K38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AC38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5209,8 +4986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59BB2C5-F739-4573-AC31-4D24E63FEF4A}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
